--- a/uploads/PruebaExitum.xlsx
+++ b/uploads/PruebaExitum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leidy\Documents\Exitum\exitum-back\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E064CE-36F9-4187-9D05-59734B6E5AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243880F4-9576-42B5-87F7-0B01F16EC70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A62F5455-B458-442C-906E-40A9324F9577}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Tipo</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ideacion</t>
   </si>
   <si>
-    <t>Skills</t>
-  </si>
-  <si>
     <t>que esperas lograr al hacer exitosa tu idea de negocio?</t>
   </si>
   <si>
@@ -97,6 +94,18 @@
   </si>
   <si>
     <t>Reto_Descripcion</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Tecnológico</t>
+  </si>
+  <si>
+    <t>Exportación</t>
+  </si>
+  <si>
+    <t>Habilidades</t>
   </si>
 </sst>
 </file>
@@ -152,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,11 +184,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -188,6 +208,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAD2349-37E6-4914-8055-89F30AABC3A9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +545,7 @@
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,71 +556,83 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
